--- a/CSV-Reconcile_Process/Shorter_process/Examples/FDH/Reconciled/Reconciliation.xlsx
+++ b/CSV-Reconcile_Process/Shorter_process/Examples/FDH/Reconciled/Reconciliation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Shorter_process/Examples/FDH/Reconciled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C30983-0881-F24E-B89C-1A53B65AEA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BB469-F8D6-6C4B-9EAE-33FF59FCE4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27400" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matched &amp; 100%" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="319">
   <si>
     <t>Label</t>
   </si>
@@ -474,508 +474,511 @@
     <t>https://lod.nal.usda.gov/nalt/288321</t>
   </si>
   <si>
-    <t>Label = Best_Match</t>
+    <t>Panicum Virgatum</t>
+  </si>
+  <si>
+    <t>Lespedeza capitat</t>
+  </si>
+  <si>
+    <t>Panicum virgatum L.</t>
+  </si>
+  <si>
+    <t>Crotalaria juncea L.</t>
+  </si>
+  <si>
+    <t>Bromus wildenowii</t>
+  </si>
+  <si>
+    <t>Aastragalus falcatus</t>
+  </si>
+  <si>
+    <t>forage crop</t>
+  </si>
+  <si>
+    <t>Dactylis glomerate</t>
+  </si>
+  <si>
+    <t>Trifolium pratense L.</t>
+  </si>
+  <si>
+    <t>Dactylis glomerata L</t>
+  </si>
+  <si>
+    <t>Sorghum bicolor L.</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>Psathyrostachys junceus</t>
+  </si>
+  <si>
+    <t>Demanthus illinoensis</t>
+  </si>
+  <si>
+    <t>Schenodorus pratensis</t>
+  </si>
+  <si>
+    <t>Melilotus officianalis</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>Sorghastum nutans</t>
+  </si>
+  <si>
+    <t>Schenodorus arundinaceus</t>
+  </si>
+  <si>
+    <t>Schendorus pratensis</t>
+  </si>
+  <si>
+    <t>Desmodium canon</t>
+  </si>
+  <si>
+    <t>Cajanus cajan L.</t>
+  </si>
+  <si>
+    <t>Panicum maximum Jacq.</t>
+  </si>
+  <si>
+    <t>Agropyron desertorum x A.cristatum</t>
+  </si>
+  <si>
+    <t>Phleum pretense</t>
+  </si>
+  <si>
+    <t>Lolium hybridum</t>
+  </si>
+  <si>
+    <t>Brassica juncia</t>
+  </si>
+  <si>
+    <t>potassium rate</t>
+  </si>
+  <si>
+    <t>Brassica sp.</t>
+  </si>
+  <si>
+    <t>nitrogen rate</t>
+  </si>
+  <si>
+    <t>Visia villosa</t>
+  </si>
+  <si>
+    <t>Brornus inermis</t>
+  </si>
+  <si>
+    <t>soil nitrogen</t>
+  </si>
+  <si>
+    <t>forage treatment</t>
+  </si>
+  <si>
+    <t>harvested area</t>
+  </si>
+  <si>
+    <t>soil potassium</t>
+  </si>
+  <si>
+    <t>Tritosecale rimpui</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>forage crop</t>
+    <t>soil phosphorus</t>
+  </si>
+  <si>
+    <t>biotic pest control</t>
+  </si>
+  <si>
+    <t>Bromus sitchensis</t>
+  </si>
+  <si>
+    <t>grazing duration</t>
+  </si>
+  <si>
+    <t>phosphorus rate</t>
+  </si>
+  <si>
+    <t>coefficient of variation</t>
+  </si>
+  <si>
+    <t>Trifolimn pratene</t>
+  </si>
+  <si>
+    <t>Raphanus raphanistrum subsp. sativus</t>
+  </si>
+  <si>
+    <t>dry matter yield</t>
+  </si>
+  <si>
+    <t>Festulolium braunii</t>
   </si>
   <si>
     <t>annual forage crop</t>
   </si>
   <si>
+    <t>stocking method</t>
+  </si>
+  <si>
     <t>perennial forage crop</t>
   </si>
   <si>
+    <t>biomass yield</t>
+  </si>
+  <si>
+    <t>ruminant type</t>
+  </si>
+  <si>
+    <t>oven dry matter</t>
+  </si>
+  <si>
+    <t>Schrankia nuttallii</t>
+  </si>
+  <si>
     <t>forage crop species</t>
   </si>
   <si>
+    <t>Lespedeza virginica</t>
+  </si>
+  <si>
+    <t>mean data</t>
+  </si>
+  <si>
+    <t>harvest number</t>
+  </si>
+  <si>
+    <t>soil series</t>
+  </si>
+  <si>
+    <t>grazer density</t>
+  </si>
+  <si>
+    <t>cutting height</t>
+  </si>
+  <si>
+    <t>relative proportion of species</t>
+  </si>
+  <si>
+    <t>replicate number</t>
+  </si>
+  <si>
     <t>mixture number</t>
   </si>
   <si>
-    <t>forage treatment</t>
-  </si>
-  <si>
-    <t>replicate number</t>
-  </si>
-  <si>
-    <t>biomass yield</t>
-  </si>
-  <si>
-    <t>dry matter yield</t>
-  </si>
-  <si>
     <t>least significant difference</t>
   </si>
   <si>
-    <t>nitrogen rate</t>
-  </si>
-  <si>
-    <t>phosphorus rate</t>
-  </si>
-  <si>
-    <t>potassium rate</t>
-  </si>
-  <si>
     <t>plot data</t>
   </si>
   <si>
-    <t>mean data</t>
-  </si>
-  <si>
-    <t>cultivar</t>
-  </si>
-  <si>
-    <t>harvest number</t>
-  </si>
-  <si>
-    <t>soil series</t>
-  </si>
-  <si>
-    <t>coefficient of variation</t>
-  </si>
-  <si>
-    <t>relative proportion of species</t>
-  </si>
-  <si>
-    <t>cutting height</t>
-  </si>
-  <si>
     <t>plot area</t>
   </si>
   <si>
-    <t>harvested area</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>oven dry matter</t>
-  </si>
-  <si>
-    <t>soil nitrogen</t>
-  </si>
-  <si>
-    <t>soil phosphorus</t>
-  </si>
-  <si>
-    <t>soil potassium</t>
-  </si>
-  <si>
-    <t>biotic pest control</t>
-  </si>
-  <si>
-    <t>grazer density</t>
-  </si>
-  <si>
-    <t>grazing duration</t>
-  </si>
-  <si>
-    <t>stocking method</t>
-  </si>
-  <si>
-    <t>ruminant type</t>
-  </si>
-  <si>
-    <t>Phleum pretense</t>
-  </si>
-  <si>
-    <t>Psathyrostachys junceus</t>
-  </si>
-  <si>
-    <t>Brornus inermis</t>
-  </si>
-  <si>
-    <t>Lespedeza virginica</t>
-  </si>
-  <si>
-    <t>Tritosecale rimpui</t>
-  </si>
-  <si>
-    <t>Dactylis glomerata L</t>
-  </si>
-  <si>
-    <t>Panicum virgatum L.</t>
-  </si>
-  <si>
-    <t>Panicum maximum Jacq.</t>
-  </si>
-  <si>
-    <t>Schenodorus arundinaceus</t>
-  </si>
-  <si>
-    <t>Schendorus pratensis</t>
-  </si>
-  <si>
-    <t>Agropyron desertorum x A.cristatum</t>
-  </si>
-  <si>
-    <t>Schenodorus pratensis</t>
-  </si>
-  <si>
-    <t>Sorghastum nutans</t>
-  </si>
-  <si>
-    <t>Dactylis glomerate</t>
-  </si>
-  <si>
-    <t>Festulolium braunii</t>
-  </si>
-  <si>
-    <t>Bromus wildenowii</t>
-  </si>
-  <si>
-    <t>Lolium hybridum</t>
-  </si>
-  <si>
     <t>Fetsulolium braunii</t>
   </si>
   <si>
-    <t>Sorghum bicolor L.</t>
-  </si>
-  <si>
-    <t>Bromus sitchensis</t>
-  </si>
-  <si>
-    <t>Brassica juncia</t>
-  </si>
-  <si>
-    <t>Raphanus raphanistrum subsp. sativus</t>
-  </si>
-  <si>
-    <t>Brassica sp.</t>
-  </si>
-  <si>
-    <t>Desmodium canon</t>
-  </si>
-  <si>
-    <t>Aastragalus falcatus</t>
-  </si>
-  <si>
-    <t>Schrankia nuttallii</t>
-  </si>
-  <si>
-    <t>Melilotus officianalis</t>
-  </si>
-  <si>
-    <t>Visia villosa</t>
-  </si>
-  <si>
-    <t>Demanthus illinoensis</t>
-  </si>
-  <si>
-    <t>Trifolium pratense L.</t>
-  </si>
-  <si>
-    <t>Crotalaria juncea L.</t>
-  </si>
-  <si>
-    <t>Cajanus cajan L.</t>
-  </si>
-  <si>
-    <t>Trifolimn pratene</t>
+    <t>Crotalaria juncea</t>
+  </si>
+  <si>
+    <t>Bromus willdenowii</t>
+  </si>
+  <si>
+    <t>forage crops</t>
+  </si>
+  <si>
+    <t>Sorghum bicolor</t>
+  </si>
+  <si>
+    <t>cultivars</t>
+  </si>
+  <si>
+    <t>Psathyrostachys juncea</t>
+  </si>
+  <si>
+    <t>coprecipitation</t>
+  </si>
+  <si>
+    <t>Desmodium canum</t>
+  </si>
+  <si>
+    <t>Cajanus cajan</t>
+  </si>
+  <si>
+    <t>Panicum maximum</t>
+  </si>
+  <si>
+    <t>Agropyron cristatum ssp. desertorum</t>
+  </si>
+  <si>
+    <t>Phleum pratense</t>
+  </si>
+  <si>
+    <t>Trifolium hybridum</t>
+  </si>
+  <si>
+    <t>Brassica juncea</t>
+  </si>
+  <si>
+    <t>potassium nitrate</t>
+  </si>
+  <si>
+    <t>Brassica rapa ssp. rapa</t>
+  </si>
+  <si>
+    <t>nitrate nitrogen</t>
+  </si>
+  <si>
+    <t>soil nitrogen budget</t>
+  </si>
+  <si>
+    <t>sewage treatment</t>
+  </si>
+  <si>
+    <t>red harvester ant</t>
+  </si>
+  <si>
+    <t>soil potassium budget</t>
+  </si>
+  <si>
+    <t>xTriticosecale rimpaui</t>
   </si>
   <si>
     <t>echolocation</t>
   </si>
   <si>
-    <t>forage crops</t>
+    <t>soil organic phosphorus</t>
+  </si>
+  <si>
+    <t>biological pest control</t>
+  </si>
+  <si>
+    <t>Alnus sitchensis</t>
+  </si>
+  <si>
+    <t>grazing operation</t>
+  </si>
+  <si>
+    <t>phosphate phosphorus</t>
+  </si>
+  <si>
+    <t>coefficient of relationship</t>
+  </si>
+  <si>
+    <t>Raphanus sativus L. raphanistroides</t>
+  </si>
+  <si>
+    <t>water yield</t>
+  </si>
+  <si>
+    <t>Festulolium</t>
+  </si>
+  <si>
+    <t>cooking methods</t>
   </si>
   <si>
     <t>perennial cropping</t>
   </si>
   <si>
+    <t>carcass yield</t>
+  </si>
+  <si>
+    <t>ruminants</t>
+  </si>
+  <si>
+    <t>dry matter content</t>
+  </si>
+  <si>
+    <t>Poa nuttalliana</t>
+  </si>
+  <si>
+    <t>Lespedeza medicaginoides</t>
+  </si>
+  <si>
+    <t>lean meat</t>
+  </si>
+  <si>
+    <t>beet harvesters</t>
+  </si>
+  <si>
+    <t>desert soils</t>
+  </si>
+  <si>
+    <t>energy density</t>
+  </si>
+  <si>
+    <t>cutting</t>
+  </si>
+  <si>
+    <t>non-native species</t>
+  </si>
+  <si>
+    <t>platelet number</t>
+  </si>
+  <si>
     <t>mixtures</t>
   </si>
   <si>
-    <t>sewage treatment</t>
-  </si>
-  <si>
-    <t>platelet number</t>
-  </si>
-  <si>
-    <t>carcass yield</t>
-  </si>
-  <si>
-    <t>water yield</t>
-  </si>
-  <si>
     <t>ethnic differences</t>
   </si>
   <si>
-    <t>nitrate nitrogen</t>
-  </si>
-  <si>
-    <t>phosphate phosphorus</t>
-  </si>
-  <si>
-    <t>potassium nitrate</t>
-  </si>
-  <si>
     <t>Haplotaxida</t>
   </si>
   <si>
-    <t>lean meat</t>
-  </si>
-  <si>
-    <t>cultivars</t>
-  </si>
-  <si>
-    <t>beet harvesters</t>
-  </si>
-  <si>
-    <t>desert soils</t>
-  </si>
-  <si>
-    <t>coefficient of relationship</t>
-  </si>
-  <si>
-    <t>non-native species</t>
-  </si>
-  <si>
-    <t>cutting</t>
-  </si>
-  <si>
     <t>heart arrest</t>
   </si>
   <si>
-    <t>red harvester ant</t>
-  </si>
-  <si>
-    <t>coprecipitation</t>
-  </si>
-  <si>
-    <t>dry matter content</t>
-  </si>
-  <si>
-    <t>soil nitrogen budget</t>
-  </si>
-  <si>
-    <t>soil organic phosphorus</t>
-  </si>
-  <si>
-    <t>soil potassium budget</t>
-  </si>
-  <si>
-    <t>biological pest control</t>
-  </si>
-  <si>
-    <t>energy density</t>
-  </si>
-  <si>
-    <t>grazing operation</t>
-  </si>
-  <si>
-    <t>cooking methods</t>
-  </si>
-  <si>
-    <t>ruminants</t>
-  </si>
-  <si>
-    <t>Phleum pratense</t>
-  </si>
-  <si>
-    <t>Psathyrostachys juncea</t>
-  </si>
-  <si>
-    <t>Lespedeza medicaginoides</t>
-  </si>
-  <si>
-    <t>xTriticosecale rimpaui</t>
-  </si>
-  <si>
-    <t>Panicum maximum</t>
-  </si>
-  <si>
-    <t>Agropyron cristatum ssp. desertorum</t>
-  </si>
-  <si>
-    <t>Festulolium</t>
-  </si>
-  <si>
-    <t>Bromus willdenowii</t>
-  </si>
-  <si>
-    <t>Trifolium hybridum</t>
-  </si>
-  <si>
     <t>Lolium gaudinii</t>
   </si>
   <si>
-    <t>Sorghum bicolor</t>
-  </si>
-  <si>
-    <t>Alnus sitchensis</t>
-  </si>
-  <si>
-    <t>Brassica juncea</t>
-  </si>
-  <si>
-    <t>Raphanus sativus L. raphanistroides</t>
-  </si>
-  <si>
-    <t>Brassica rapa ssp. rapa</t>
-  </si>
-  <si>
-    <t>Desmodium canum</t>
-  </si>
-  <si>
-    <t>Poa nuttalliana</t>
-  </si>
-  <si>
-    <t>Crotalaria juncea</t>
-  </si>
-  <si>
-    <t>Cajanus cajan</t>
+    <t>https://lod.nal.usda.gov/nalt/30234</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/225548</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/40102</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/20053</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/5630</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/36527</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/24647</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/32574</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/21016</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/43835</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/5641</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/57812</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/7041</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/19315</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/54860</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/19358</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/54857</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/969</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/62959</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/59009</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/58977</t>
   </si>
   <si>
     <t>https://lod.nal.usda.gov/nalt/286407</t>
   </si>
   <si>
-    <t>https://lod.nal.usda.gov/nalt/40102</t>
+    <t>https://lod.nal.usda.gov/nalt/329275</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/136198</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/232725</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/28608</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/325189</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/301751</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/230466</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/306465</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/40018</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/15573</t>
   </si>
   <si>
     <t>https://lod.nal.usda.gov/nalt/302948</t>
   </si>
   <si>
+    <t>https://lod.nal.usda.gov/nalt/22330</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/9888</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/24608</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/328158</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/218456</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/22332</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/130580</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/32536</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/37110</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/25640</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/17460</t>
+  </si>
+  <si>
+    <t>https://lod.nal.usda.gov/nalt/18077</t>
+  </si>
+  <si>
     <t>https://lod.nal.usda.gov/nalt/598</t>
   </si>
   <si>
-    <t>https://lod.nal.usda.gov/nalt/62959</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/18077</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/22330</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/306465</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/68507</t>
   </si>
   <si>
-    <t>https://lod.nal.usda.gov/nalt/54857</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/325189</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/54860</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/294839</t>
   </si>
   <si>
-    <t>https://lod.nal.usda.gov/nalt/22332</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/5630</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/130580</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/32536</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/301751</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/17460</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/25640</t>
-  </si>
-  <si>
     <t>https://lod.nal.usda.gov/nalt/188003</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/59009</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/24647</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/24608</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/969</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/329275</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/136198</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/37110</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/28608</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/15573</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/9888</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/57812</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/36527</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/218456</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/58977</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/43835</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/5641</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/40018</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/225548</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/7041</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/20053</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/232725</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/19315</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/230466</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/19358</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/32574</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/328158</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/30234</t>
-  </si>
-  <si>
-    <t>https://lod.nal.usda.gov/nalt/21016</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2536,21 +2539,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,1344 +2565,39 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3910,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3938,27 +2635,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>219</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>270</v>
@@ -3966,338 +2663,338 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>283</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C21">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C25">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C26">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,13 +3002,13 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,13 +3016,13 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4333,13 +3030,13 @@
         <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,13 +3044,13 @@
         <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,13 +3058,13 @@
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>296</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,13 +3072,13 @@
         <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C33">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,13 +3086,13 @@
         <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C34">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,13 +3100,13 @@
         <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4417,13 +3114,13 @@
         <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C36">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,13 +3128,13 @@
         <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C37">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,13 +3142,13 @@
         <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="C38">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,13 +3156,13 @@
         <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,13 +3170,13 @@
         <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4487,13 +3184,13 @@
         <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="C41">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4501,13 +3198,13 @@
         <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="C42">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,13 +3212,13 @@
         <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C43">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,13 +3226,13 @@
         <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4543,13 +3240,13 @@
         <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C45">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,13 +3254,13 @@
         <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C46">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,13 +3268,13 @@
         <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="C47">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,13 +3282,13 @@
         <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="C48">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4599,13 +3296,13 @@
         <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="C49">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,13 +3310,13 @@
         <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C50">
         <v>71</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,265 +3324,265 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C51">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C52">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C53">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C54">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C55">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C56">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C57">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C58">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C59">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C60">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="C61">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="C63">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="C64">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="C65">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="C66">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>267</v>
       </c>
       <c r="C67">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
         <v>268</v>
       </c>
       <c r="C68">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="C69">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
